--- a/App/products.xlsx
+++ b/App/products.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         <v>800</v>
       </c>
       <c r="E2" t="n">
-        <v>317.1</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>293</v>
       </c>
       <c r="E3" t="n">
-        <v>205.1</v>
+        <v>200</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -5052,6 +5052,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>116</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>High-quality car part number 1, compatible with various car models.</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>800</v>
+      </c>
+      <c r="E106" t="n">
+        <v>317.1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>45676.73479166667</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PROD2025</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M106" t="n">
+        <v>280</v>
+      </c>
+      <c r="N106" t="n">
+        <v>180</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
